--- a/Files/cfg/follow_set.xlsx
+++ b/Files/cfg/follow_set.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'eklabool', 'shimenet', 'anda', 'andamhie', 'chika', '$'}</t>
+          <t>{'shimenet', 'anda', '$', 'andamhie', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'eklabool', 'naur', 'shimenet', 'anda', 'andamhie', 'chika', '$'}</t>
+          <t>{'shimenet', 'anda', '$', 'andamhie', 'chika', 'naur', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'eklabool', 'anda', 'andamhie', 'chika'}</t>
+          <t>{'anda', 'andamhie', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'&gt;=', '==', ')', '/', ',', ']', '%', '+', '//', '&amp;&amp;', ':', '*', '&gt;', '&lt;', '&lt;=', 'step', '||', '!', '!=', 'to', '=', '+=', ';', '**', '-', '}'}</t>
+          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'&gt;=', '==', ')', '/', ',', ']', '%', '+', '//', '&amp;&amp;', ':', '*', '&gt;', '&lt;', '&lt;=', 'step', '||', '!', '!=', 'to', '=', '+=', ';', '**', '-', '}'}</t>
+          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'&lt;=', 'step', '&gt;=', '==', '||', '!', ')', '!=', '/', 'to', ',', ']', '%', '+', '//', '=', '&amp;&amp;', '+=', ';', '**', '-', ':', '*', '}', '&gt;', '&lt;'}</t>
+          <t>{'}', ']', '&amp;&amp;', '**', ';', '//', '&gt;', '||', ':', '==', '!', '&gt;=', '%', 'step', '+', 'to', '&lt;=', '-', ',', '*', '&lt;', '/', ')', '=', '+=', '!='}</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{',', ']', '}', ';'}</t>
+          <t>{'}', ']', ';', ','}</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'&gt;=', '==', ')', '/', ',', ']', '%', '+', '//', '&amp;&amp;', ':', '*', '&gt;', '&lt;', '&lt;=', 'step', '||', '!', '!=', 'to', '=', '+=', ';', '**', '-', '}'}</t>
+          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'&lt;=', 'step', '&gt;=', '==', '||', '!', ')', '!=', '/', 'to', ',', ']', '%', '+', '//', '=', '&amp;&amp;', '+=', ';', '**', '-', ':', '*', '}', '&gt;', '&lt;'}</t>
+          <t>{'}', ']', '&amp;&amp;', '**', ';', '//', '&gt;', '||', ':', '==', '!', '&gt;=', '%', 'step', '+', 'to', '&lt;=', '-', ',', '*', '&lt;', '/', ')', '=', '+=', '!='}</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'&gt;=', '==', ')', '/', ',', ']', '%', '+', '//', '&amp;&amp;', ':', '*', '&gt;', '&lt;', '&lt;=', 'step', '||', '!', '!=', 'to', '=', '+=', ';', '**', '-', '}'}</t>
+          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'&gt;=', '==', ')', '/', ',', ']', '%', '+', '//', '&amp;&amp;', ':', '*', '&gt;', '&lt;', '&lt;=', 'step', '||', '!', '!=', 'to', '=', '+=', ';', '**', '-', '}'}</t>
+          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{',', ';'}</t>
+          <t>{';', ','}</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{',', ';'}</t>
+          <t>{';', ','}</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{',', ';'}</t>
+          <t>{';', ','}</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{'ditech', 'betsung', 'amaccana', '}'}</t>
+          <t>{'}', 'betsung', 'ditech', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{'serve', 'keri', 'gogogo', 'chika', '--', 'ditech', 'andamhie', 'push', 'betsung', 'id', 'anda', 'forda', '++', 'eklabool', 'amaccana', 'pak', 'versa', '}'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'push', 'eklabool', 'betsung', 'amaccana', 'naur', 'ditech', 'andamhie', 'pak', 'versa', '}'}</t>
+          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'eklabool', '}', 'betsung', 'amaccana', 'naur', 'ditech', 'andamhie', 'pak', 'versa', 'push'}</t>
+          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'step', ')', ';', 'to', ',', ']', ':', '}'}</t>
+          <t>{'}', ']', 'step', ';', 'to', ',', ':', ')'}</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'step', ')', ';', 'to', ',', ']', ':', '}'}</t>
+          <t>{'}', ']', 'step', ';', 'to', ',', ':', ')'}</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'step', ')', ';', 'to', ',', ']', ':', '}'}</t>
+          <t>{'}', ']', 'step', ';', 'to', ',', ':', ')'}</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'step', ')', ';', 'to', ',', ']', ':', '}'}</t>
+          <t>{'}', ']', 'step', ';', 'to', ',', ':', ')'}</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{'&gt;=', '==', ')', '/', ',', ']', '%', '+', '//', '&amp;&amp;', ':', '*', '&gt;', '&lt;', '&lt;=', 'step', '||', '!', '!=', 'to', '=', '+=', ';', '**', '-', '}'}</t>
+          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'chika_literal', 'id', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'&gt;=', '==', ')', '/', ',', ']', '%', '+', '//', '&amp;&amp;', ':', '*', '&gt;', '&lt;', '&lt;=', 'step', '||', '!', '!=', 'to', '=', '+=', ';', '**', '-', '}'}</t>
+          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'&gt;=', '==', ')', '/', ',', ']', '%', '+', '//', '&amp;&amp;', ':', '*', '&gt;', '&lt;', '&lt;=', 'step', '||', '!', '!=', 'to', '=', '+=', ';', '**', '-', '}'}</t>
+          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'&lt;=', 'id', 'step', '&gt;=', '==', '||', '!', ')', '!=', '/', 'to', ',', ']', '%', '+', '//', '=', '&amp;&amp;', '+=', ';', '**', '-', ':', '*', '}', '&gt;', '&lt;'}</t>
+          <t>{'}', ']', '&amp;&amp;', '**', ';', '//', '&gt;', '||', ':', '==', '!', '&gt;=', '%', 'step', '+', 'id', 'to', '&lt;=', '-', ',', '*', '&lt;', '/', ')', '=', '+=', '!='}</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'&gt;=', '==', ')', '/', ',', ']', '%', '+', '//', '&amp;&amp;', ':', '*', '&gt;', '&lt;', '&lt;=', 'step', '||', '!', '!=', 'to', '=', '+=', ';', '**', '-', '}'}</t>
+          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'korik', 'id', 'anda_literal', 'chika_literal', 'eme', '-', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'eklabool', '}', 'betsung', 'amaccana', 'ditech', 'andamhie', 'pak', 'versa', 'push'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>&lt;assign-stmts&gt;</t>
+          <t>&lt;loop-body&gt;</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'serve', 'keri', 'gogogo', 'chika', '--', 'ditech', 'andamhie', 'push', 'betsung', 'id', 'anda', 'forda', '++', 'eklabool', 'amaccana', 'pak', 'versa', '}'}</t>
+          <t>{'}', 'gogogo', 'ditech', 'betsung', 'anda', 'andamhie', 'serve', 'forda', 'chika', 'eklabool', 'pak', '--', 'push', 'keri', 'id', 'versa', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>&lt;arithmetic-operators&gt;</t>
+          <t>&lt;multi-loop-body&gt;</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'='}</t>
+          <t>{'}', 'betsung', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>&lt;assignment-values&gt;</t>
+          <t>&lt;assign-stmts&gt;</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{';'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>&lt;input-stmts&gt;</t>
+          <t>&lt;arithmetic-operators&gt;</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'serve', 'keri', 'gogogo', 'chika', '--', 'ditech', 'andamhie', 'push', 'betsung', 'id', 'anda', 'forda', '++', 'eklabool', 'amaccana', 'pak', 'versa', '}'}</t>
+          <t>{'='}</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>&lt;input-type&gt;</t>
+          <t>&lt;assignment-values&gt;</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{';'}</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>&lt;givenchy-values&gt;</t>
+          <t>&lt;input-stmts&gt;</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{')'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>&lt;output-stmts&gt;</t>
+          <t>&lt;input-type&gt;</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'serve', 'keri', 'gogogo', 'chika', '--', 'ditech', 'andamhie', 'push', 'betsung', 'id', 'anda', 'forda', '++', 'eklabool', 'amaccana', 'pak', 'versa', '}'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>&lt;output-values&gt;</t>
+          <t>&lt;givenchy-values&gt;</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>&lt;conditional-stmts&gt;</t>
+          <t>&lt;output-stmts&gt;</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'serve', 'keri', 'gogogo', 'chika', '--', 'ditech', 'andamhie', 'push', 'betsung', 'id', 'anda', 'forda', '++', 'eklabool', 'amaccana', 'pak', 'versa', '}'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>&lt;condition&gt;</t>
+          <t>&lt;output-values&gt;</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>&lt;conditional-body&gt;</t>
+          <t>&lt;conditional-stmts&gt;</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>&lt;ganern-pak-statement&gt;</t>
+          <t>&lt;condition&gt;</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'ganern', 'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'push', 'eklabool', 'betsung', 'amaccana', 'ditech', 'andamhie', 'pak', 'versa', '}'}</t>
+          <t>{')'}</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>&lt;ganern-case&gt;</t>
+          <t>&lt;conditional-body&gt;</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'eklabool', '}', 'betsung', 'amaccana', 'ditech', 'andamhie', 'pak', 'versa', 'push'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>&lt;loop-stmts&gt;</t>
+          <t>&lt;loop-conditional-stmts&gt;</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'serve', 'keri', 'gogogo', 'chika', '--', 'ditech', 'andamhie', 'push', 'betsung', 'id', 'anda', 'forda', '++', 'eklabool', 'amaccana', 'pak', 'versa', '}'}</t>
+          <t>{'}', 'gogogo', 'ditech', 'betsung', 'anda', 'andamhie', 'serve', 'forda', 'chika', 'eklabool', 'pak', '--', 'push', 'keri', 'id', 'versa', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>&lt;forda-statement&gt;</t>
+          <t>&lt;loop-conditional-body&gt;</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'eklabool', '}', 'betsung', 'amaccana', 'ditech', 'andamhie', 'pak', 'versa', 'push'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>&lt;loop-type-init&gt;</t>
+          <t>&lt;ganern-pak-statement&gt;</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', 'ganern', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>&lt;start-value&gt;</t>
+          <t>&lt;ganern-case&gt;</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'to'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>&lt;end-value&gt;</t>
+          <t>&lt;loop-stmts&gt;</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{')', 'step'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>&lt;step-case&gt;</t>
+          <t>&lt;forda-statement&gt;</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{')'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>&lt;update&gt;</t>
+          <t>&lt;loop-type-init&gt;</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{')'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>&lt;loop-conditions&gt;</t>
+          <t>&lt;start-value&gt;</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'to', 'step', ')'}</t>
+          <t>{'to'}</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>&lt;for-loop-body&gt;</t>
+          <t>&lt;end-value&gt;</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'step', ')'}</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>&lt;keri-statement&gt;</t>
+          <t>&lt;step-case&gt;</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'eklabool', '}', 'betsung', 'amaccana', 'ditech', 'andamhie', 'pak', 'versa', 'push'}</t>
+          <t>{')'}</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>&lt;keri-case&gt;</t>
+          <t>&lt;update&gt;</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{'serve', 'id', 'keri', 'anda', 'forda', 'gogogo', 'chika', '--', '++', 'eklabool', '}', 'betsung', 'amaccana', 'ditech', 'andamhie', 'pak', 'versa', 'push'}</t>
+          <t>{')'}</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>&lt;while-loop-body&gt;</t>
+          <t>&lt;loop-conditions&gt;</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'step', 'to', ')'}</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>&lt;switch-stmts&gt;</t>
+          <t>&lt;for-loop-body&gt;</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{'serve', 'keri', 'gogogo', 'chika', '--', 'ditech', 'andamhie', 'push', 'betsung', 'id', 'anda', 'forda', '++', 'eklabool', 'amaccana', 'pak', 'versa', '}'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>&lt;multi-cases&gt;</t>
+          <t>&lt;keri-statement&gt;</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>&lt;switch-values&gt;</t>
+          <t>&lt;keri-case&gt;</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{')', ':'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>&lt;switch-statements&gt;</t>
+          <t>&lt;while-loop-body&gt;</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'ditech', 'betsung', 'amaccana', '}'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>&lt;amaccana-case&gt;</t>
+          <t>&lt;switch-stmts&gt;</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'ditech', '}', 'betsung'}</t>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>&lt;ditech-case&gt;</t>
+          <t>&lt;multi-cases&gt;</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>&lt;control-flow-stmts&gt;</t>
+          <t>&lt;switch-values&gt;</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'serve', 'keri', 'gogogo', 'chika', '--', 'ditech', 'andamhie', 'push', 'betsung', 'id', 'anda', 'forda', '++', 'eklabool', 'amaccana', 'pak', 'versa', '}'}</t>
+          <t>{')', ':'}</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>&lt;return-stmts&gt;</t>
+          <t>&lt;switch-statements&gt;</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'serve', 'keri', 'gogogo', 'chika', '--', 'ditech', 'andamhie', 'push', 'betsung', 'id', 'anda', 'forda', '++', 'eklabool', 'amaccana', 'pak', 'versa', '}'}</t>
+          <t>{'}', 'betsung', 'ditech', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>&lt;unary-stmts&gt;</t>
+          <t>&lt;loop-switch-stmts&gt;</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'serve', 'keri', 'gogogo', 'chika', '--', 'ditech', 'andamhie', 'push', 'betsung', 'id', 'anda', 'forda', '++', 'eklabool', 'amaccana', 'pak', 'versa', '}'}</t>
+          <t>{'}', 'gogogo', 'ditech', 'betsung', 'anda', 'andamhie', 'serve', 'forda', 'chika', 'eklabool', 'pak', '--', 'push', 'keri', 'id', 'versa', '++', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>&lt;push-values&gt;</t>
+          <t>&lt;loop-multi-cases&gt;</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{';'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -2195,13 +2195,153 @@
       <c r="A89" t="n">
         <v>88</v>
       </c>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>&lt;loop-switch-statements&gt;</t>
+        </is>
+      </c>
       <c r="C89" t="inlineStr">
         <is>
           <t>-&gt;</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
+        <is>
+          <t>{'}', 'betsung', 'ditech'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>&lt;amaccana-case&gt;</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>{'}', 'betsung', 'ditech'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>&lt;ditech-case&gt;</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>{'}'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>&lt;control-flow-stmts&gt;</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>{'}', 'gogogo', 'ditech', 'betsung', 'anda', 'andamhie', 'serve', 'forda', 'chika', 'eklabool', 'pak', '--', 'push', 'keri', 'id', 'versa', '++', 'amaccana'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>&lt;return-stmts&gt;</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>&lt;unary-stmts&gt;</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>&lt;push-values&gt;</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>{';'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>-&gt;</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>set()</t>
         </is>

--- a/Files/cfg/follow_set.xlsx
+++ b/Files/cfg/follow_set.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>&lt;program&gt;</t>
+          <t>Follow(&lt;program&gt;)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>&lt;global-dec&gt;</t>
+          <t>Follow(&lt;global-dec&gt;)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'shimenet', 'anda', '$', 'andamhie', 'chika', 'eklabool'}</t>
+          <t>{'$', 'chika', 'shimenet', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>&lt;var-dec-init&gt;</t>
+          <t>Follow(&lt;var-dec-init&gt;)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'shimenet', 'anda', '$', 'andamhie', 'chika', 'naur', 'eklabool'}</t>
+          <t>{'$', 'chika', 'shimenet', 'naur', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>&lt;naur-case&gt;</t>
+          <t>Follow(&lt;naur-case&gt;)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'anda', 'andamhie', 'chika', 'eklabool'}</t>
+          <t>{'chika', 'eklabool', 'anda', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>&lt;return-type&gt;</t>
+          <t>Follow(&lt;return-type&gt;)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>&lt;data-type&gt;</t>
+          <t>Follow(&lt;data-type&gt;)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>&lt;func-array-init-tail&gt;</t>
+          <t>Follow(&lt;func-array-init-tail&gt;)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>&lt;func-case&gt;</t>
+          <t>Follow(&lt;func-case&gt;)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>&lt;parameters&gt;</t>
+          <t>Follow(&lt;parameters&gt;)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>&lt;func-parameters&gt;</t>
+          <t>Follow(&lt;func-parameters&gt;)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{')', ','}</t>
+          <t>{',', ')'}</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>&lt;multi-parameters&gt;</t>
+          <t>Follow(&lt;multi-parameters&gt;)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>&lt;array-case&gt;</t>
+          <t>Follow(&lt;array-case&gt;)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
+          <t>{'&gt;', ':', '-', '**', '=', '+=', ')', '//', '}', '&lt;=', '||', ']', '==', '!', '!=', ';', '&lt;', '&amp;&amp;', 'step', '+', '&gt;=', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>&lt;2d-index&gt;</t>
+          <t>Follow(&lt;2d-index&gt;)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
+          <t>{'&gt;', ':', '-', '**', '=', '+=', ')', '//', '}', '&lt;=', '||', ']', '==', '!', '!=', ';', '&lt;', '&amp;&amp;', 'step', '+', '&gt;=', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>&lt;3d-index&gt;</t>
+          <t>Follow(&lt;3d-index&gt;)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'}', ']', '&amp;&amp;', '**', ';', '//', '&gt;', '||', ':', '==', '!', '&gt;=', '%', 'step', '+', 'to', '&lt;=', '-', ',', '*', '&lt;', '/', ')', '=', '+=', '!='}</t>
+          <t>{'&gt;', '}', '&lt;=', '||', ']', ':', '==', '!', '-', '!=', ';', '**', '&lt;', '=', '&amp;&amp;', 'step', '+', '+=', ')', '&gt;=', '//', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>&lt;array-values&gt;</t>
+          <t>Follow(&lt;array-values&gt;)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'}', ']', ';', ','}</t>
+          <t>{'}', ';', ',', ']'}</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>&lt;literals&gt;</t>
+          <t>Follow(&lt;literals&gt;)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
+          <t>{'&gt;', ':', '-', '**', '=', '+=', ')', '//', '}', '&lt;=', '||', ']', '==', '!', '!=', ';', '&lt;', '&amp;&amp;', 'step', '+', '&gt;=', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>&lt;eklabool&gt;</t>
+          <t>Follow(&lt;eklabool&gt;)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'}', ']', '&amp;&amp;', '**', ';', '//', '&gt;', '||', ':', '==', '!', '&gt;=', '%', 'step', '+', 'to', '&lt;=', '-', ',', '*', '&lt;', '/', ')', '=', '+=', '!='}</t>
+          <t>{'&gt;', '}', '&lt;=', '||', ']', ':', '==', '!', '-', '!=', ';', '**', '&lt;', '=', '&amp;&amp;', 'step', '+', '+=', ')', '&gt;=', '//', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>&lt;func-array&gt;</t>
+          <t>Follow(&lt;func-array&gt;)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
+          <t>{'&gt;', ':', '-', '**', '=', '+=', ')', '//', '}', '&lt;=', '||', ']', '==', '!', '!=', ';', '&lt;', '&amp;&amp;', 'step', '+', '&gt;=', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>&lt;func-array-value&gt;</t>
+          <t>Follow(&lt;func-array-value&gt;)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
+          <t>{'&gt;', ':', '-', '**', '=', '+=', ')', '//', '}', '&lt;=', '||', ']', '==', '!', '!=', ';', '&lt;', '&amp;&amp;', 'step', '+', '&gt;=', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>&lt;var-init&gt;</t>
+          <t>Follow(&lt;var-init&gt;)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>&lt;var-init-tail&gt;</t>
+          <t>Follow(&lt;var-init-tail&gt;)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>&lt;multi-init-values&gt;</t>
+          <t>Follow(&lt;multi-init-values&gt;)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>&lt;multi-init-values-tail&gt;</t>
+          <t>Follow(&lt;multi-init-values-tail&gt;)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>&lt;init-values&gt;</t>
+          <t>Follow(&lt;init-values&gt;)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>&lt;array-init&gt;</t>
+          <t>Follow(&lt;array-init&gt;)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>&lt;array-elements&gt;</t>
+          <t>Follow(&lt;array-elements&gt;)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>&lt;2d-array-elements&gt;</t>
+          <t>Follow(&lt;2d-array-elements&gt;)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>&lt;extra-array-value&gt;</t>
+          <t>Follow(&lt;extra-array-value&gt;)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>&lt;extra-2d-array-value&gt;</t>
+          <t>Follow(&lt;extra-2d-array-value&gt;)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>&lt;extra-3d-array-value&gt;</t>
+          <t>Follow(&lt;extra-3d-array-value&gt;)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>&lt;func-def&gt;</t>
+          <t>Follow(&lt;func-def&gt;)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'shimenet', '$'}</t>
+          <t>{'$', 'shimenet'}</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>&lt;func-body&gt;</t>
+          <t>Follow(&lt;func-body&gt;)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>&lt;multi-statements&gt;</t>
+          <t>Follow(&lt;multi-statements&gt;)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{'}', 'betsung', 'ditech', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'ditech', 'betsung'}</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>&lt;local-dec&gt;</t>
+          <t>Follow(&lt;local-dec&gt;)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>&lt;local-dec-init&gt;</t>
+          <t>Follow(&lt;local-dec-init&gt;)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'naur', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>&lt;arguments&gt;</t>
+          <t>Follow(&lt;arguments&gt;)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>&lt;multi-arguments-value&gt;</t>
+          <t>Follow(&lt;multi-arguments-value&gt;)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>&lt;arguments-value&gt;</t>
+          <t>Follow(&lt;arguments-value&gt;)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{')', ','}</t>
+          <t>{',', ')'}</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>&lt;array-assign&gt;</t>
+          <t>Follow(&lt;array-assign&gt;)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'naur', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'andamhie', 'id', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'naur', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>&lt;kween-body&gt;</t>
+          <t>Follow(&lt;kween-body&gt;)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>&lt;expression&gt;</t>
+          <t>Follow(&lt;expression&gt;)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'}', ']', 'step', ';', 'to', ',', ':', ')'}</t>
+          <t>{'}', 'step', ']', ':', ')', ';', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>&lt;simple-expression&gt;</t>
+          <t>Follow(&lt;simple-expression&gt;)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'}', ']', 'step', ';', 'to', ',', ':', ')'}</t>
+          <t>{'}', 'step', ']', ':', ')', ';', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>&lt;multi-expression&gt;</t>
+          <t>Follow(&lt;multi-expression&gt;)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'}', ']', 'step', ';', 'to', ',', ':', ')'}</t>
+          <t>{'}', 'step', ']', ':', ')', ';', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>&lt;expression-tail&gt;</t>
+          <t>Follow(&lt;expression-tail&gt;)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'}', ']', 'step', ';', 'to', ',', ':', ')'}</t>
+          <t>{'}', 'step', ']', ':', ')', ';', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>&lt;expression-operands&gt;</t>
+          <t>Follow(&lt;expression-operands&gt;)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
+          <t>{'&gt;', ':', '-', '**', '=', '+=', ')', '//', '}', '&lt;=', '||', ']', '==', '!', '!=', ';', '&lt;', '&amp;&amp;', 'step', '+', '&gt;=', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>&lt;negative-value&gt;</t>
+          <t>Follow(&lt;negative-value&gt;)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'korik', '++', '--', 'eme', 'anda_literal', '(', 'chika_literal', 'id', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>&lt;expression-value&gt;</t>
+          <t>Follow(&lt;expression-value&gt;)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
+          <t>{'&gt;', ':', '-', '**', '=', '+=', ')', '//', '}', '&lt;=', '||', ']', '==', '!', '!=', ';', '&lt;', '&amp;&amp;', 'step', '+', '&gt;=', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>&lt;identifier-tail&gt;</t>
+          <t>Follow(&lt;identifier-tail&gt;)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
+          <t>{'&gt;', ':', '-', '**', '=', '+=', ')', '//', '}', '&lt;=', '||', ']', '==', '!', '!=', ';', '&lt;', '&amp;&amp;', 'step', '+', '&gt;=', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>&lt;unary-operator&gt;</t>
+          <t>Follow(&lt;unary-operator&gt;)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'}', ']', '&amp;&amp;', '**', ';', '//', '&gt;', '||', ':', '==', '!', '&gt;=', '%', 'step', '+', 'id', 'to', '&lt;=', '-', ',', '*', '&lt;', '/', ')', '=', '+=', '!='}</t>
+          <t>{'&gt;', '}', '&lt;=', '||', ']', ':', '==', '!', '-', '!=', ';', '**', 'id', '&lt;', '=', '&amp;&amp;', 'step', '+', '+=', ')', '&gt;=', '//', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>&lt;general-operands&gt;</t>
+          <t>Follow(&lt;general-operands&gt;)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'}', ']', '&amp;&amp;', '**', ':', '==', '%', 'step', '+', 'to', '&lt;=', '/', ')', '=', '+=', ';', '//', '&gt;', '||', '!', '&gt;=', '-', ',', '*', '&lt;', '!='}</t>
+          <t>{'&gt;', ':', '-', '**', '=', '+=', ')', '//', '}', '&lt;=', '||', ']', '==', '!', '!=', ';', '&lt;', '&amp;&amp;', 'step', '+', '&gt;=', ',', '%', '/', 'to', '*'}</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>&lt;general-operators&gt;</t>
+          <t>Follow(&lt;general-operators&gt;)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'eme', 'chika_literal', 'id', '-', 'andamhie_literal', 'anda_literal', 'korik', '++', '--', '('}</t>
+          <t>{'id', 'korik', '++', '--', '-', '(', 'chika_literal', 'anda_literal', 'andamhie_literal', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>&lt;statements&gt;</t>
+          <t>Follow(&lt;statements&gt;)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>&lt;loop-body&gt;</t>
+          <t>Follow(&lt;loop-body&gt;)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'}', 'gogogo', 'ditech', 'betsung', 'anda', 'andamhie', 'serve', 'forda', 'chika', 'eklabool', 'pak', '--', 'push', 'keri', 'id', 'versa', '++', 'amaccana'}</t>
+          <t>{'amaccana', 'versa', 'keri', 'id', 'gogogo', 'pak', 'push', 'anda', 'ditech', '}', 'serve', '++', 'forda', 'andamhie', 'chika', '--', 'betsung', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>&lt;multi-loop-body&gt;</t>
+          <t>Follow(&lt;multi-loop-body&gt;)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'}', 'betsung', 'ditech'}</t>
+          <t>{'}', 'ditech', 'betsung'}</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>&lt;assign-stmts&gt;</t>
+          <t>Follow(&lt;assign-stmts&gt;)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>&lt;arithmetic-operators&gt;</t>
+          <t>Follow(&lt;arithmetic-operators&gt;)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>&lt;assignment-values&gt;</t>
+          <t>Follow(&lt;assignment-values&gt;)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>&lt;input-stmts&gt;</t>
+          <t>Follow(&lt;input-stmts&gt;)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>&lt;input-type&gt;</t>
+          <t>Follow(&lt;input-type&gt;)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>&lt;givenchy-values&gt;</t>
+          <t>Follow(&lt;givenchy-values&gt;)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>&lt;output-stmts&gt;</t>
+          <t>Follow(&lt;output-stmts&gt;)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>&lt;output-values&gt;</t>
+          <t>Follow(&lt;output-values&gt;)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>&lt;conditional-stmts&gt;</t>
+          <t>Follow(&lt;conditional-stmts&gt;)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>&lt;condition&gt;</t>
+          <t>Follow(&lt;condition&gt;)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>&lt;conditional-body&gt;</t>
+          <t>Follow(&lt;conditional-body&gt;)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>&lt;loop-conditional-stmts&gt;</t>
+          <t>Follow(&lt;loop-conditional-stmts&gt;)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'}', 'gogogo', 'ditech', 'betsung', 'anda', 'andamhie', 'serve', 'forda', 'chika', 'eklabool', 'pak', '--', 'push', 'keri', 'id', 'versa', '++', 'amaccana'}</t>
+          <t>{'amaccana', 'versa', 'keri', 'id', 'gogogo', 'pak', 'push', 'anda', 'ditech', '}', 'serve', '++', 'forda', 'andamhie', 'chika', '--', 'betsung', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>&lt;loop-conditional-body&gt;</t>
+          <t>Follow(&lt;loop-conditional-body&gt;)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>&lt;ganern-pak-statement&gt;</t>
+          <t>Follow(&lt;ganern-pak-statement&gt;)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', 'ganern', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'ganern', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>&lt;ganern-case&gt;</t>
+          <t>Follow(&lt;ganern-case&gt;)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>&lt;loop-stmts&gt;</t>
+          <t>Follow(&lt;loop-stmts&gt;)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>&lt;forda-statement&gt;</t>
+          <t>Follow(&lt;forda-statement&gt;)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>&lt;loop-type-init&gt;</t>
+          <t>Follow(&lt;loop-type-init&gt;)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>&lt;start-value&gt;</t>
+          <t>Follow(&lt;start-value&gt;)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>&lt;end-value&gt;</t>
+          <t>Follow(&lt;end-value&gt;)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>&lt;step-case&gt;</t>
+          <t>Follow(&lt;step-case&gt;)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>&lt;update&gt;</t>
+          <t>Follow(&lt;update&gt;)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>&lt;loop-conditions&gt;</t>
+          <t>Follow(&lt;loop-conditions&gt;)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>&lt;for-loop-body&gt;</t>
+          <t>Follow(&lt;for-loop-body&gt;)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>&lt;keri-statement&gt;</t>
+          <t>Follow(&lt;keri-statement&gt;)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>&lt;keri-case&gt;</t>
+          <t>Follow(&lt;keri-case&gt;)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>&lt;while-loop-body&gt;</t>
+          <t>Follow(&lt;while-loop-body&gt;)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>&lt;switch-stmts&gt;</t>
+          <t>Follow(&lt;switch-stmts&gt;)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>&lt;multi-cases&gt;</t>
+          <t>Follow(&lt;multi-cases&gt;)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>&lt;switch-values&gt;</t>
+          <t>Follow(&lt;switch-values&gt;)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{')', ':'}</t>
+          <t>{':', ')'}</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>&lt;switch-statements&gt;</t>
+          <t>Follow(&lt;switch-statements&gt;)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'}', 'betsung', 'ditech', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'ditech', 'betsung'}</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>&lt;loop-switch-stmts&gt;</t>
+          <t>Follow(&lt;loop-switch-stmts&gt;)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'}', 'gogogo', 'ditech', 'betsung', 'anda', 'andamhie', 'serve', 'forda', 'chika', 'eklabool', 'pak', '--', 'push', 'keri', 'id', 'versa', '++', 'amaccana'}</t>
+          <t>{'amaccana', 'versa', 'keri', 'id', 'gogogo', 'pak', 'push', 'anda', 'ditech', '}', 'serve', '++', 'forda', 'andamhie', 'chika', '--', 'betsung', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>&lt;loop-multi-cases&gt;</t>
+          <t>Follow(&lt;loop-multi-cases&gt;)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>&lt;loop-switch-statements&gt;</t>
+          <t>Follow(&lt;loop-switch-statements&gt;)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'}', 'betsung', 'ditech'}</t>
+          <t>{'}', 'ditech', 'betsung'}</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>&lt;amaccana-case&gt;</t>
+          <t>Follow(&lt;amaccana-case&gt;)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{'}', 'betsung', 'ditech'}</t>
+          <t>{'}', 'ditech', 'betsung'}</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>&lt;ditech-case&gt;</t>
+          <t>Follow(&lt;ditech-case&gt;)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>&lt;control-flow-stmts&gt;</t>
+          <t>Follow(&lt;control-flow-stmts&gt;)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'}', 'gogogo', 'ditech', 'betsung', 'anda', 'andamhie', 'serve', 'forda', 'chika', 'eklabool', 'pak', '--', 'push', 'keri', 'id', 'versa', '++', 'amaccana'}</t>
+          <t>{'amaccana', 'versa', 'keri', 'id', 'gogogo', 'pak', 'push', 'anda', 'ditech', '}', 'serve', '++', 'forda', 'andamhie', 'chika', '--', 'betsung', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>&lt;return-stmts&gt;</t>
+          <t>Follow(&lt;return-stmts&gt;)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>&lt;unary-stmts&gt;</t>
+          <t>Follow(&lt;unary-stmts&gt;)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'}', 'forda', 'chika', 'eklabool', 'pak', 'gogogo', 'ditech', '--', 'push', 'keri', 'betsung', 'anda', 'id', 'andamhie', 'versa', 'serve', '++', 'amaccana'}</t>
+          <t>{'amaccana', '}', 'serve', '++', 'versa', 'keri', 'forda', 'id', 'gogogo', 'andamhie', 'pak', 'chika', '--', 'betsung', 'eklabool', 'push', 'anda', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>&lt;push-values&gt;</t>
+          <t>Follow(&lt;push-values&gt;)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2335,7 +2335,11 @@
       <c r="A96" t="n">
         <v>95</v>
       </c>
-      <c r="B96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Follow()</t>
+        </is>
+      </c>
       <c r="C96" t="inlineStr">
         <is>
           <t>-&gt;</t>

--- a/Files/cfg/follow_set.xlsx
+++ b/Files/cfg/follow_set.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'andamhie', 'eklabool', '$', 'chika', 'shimenet', 'anda'}</t>
+          <t>{'shimenet', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'shimenet', 'andamhie', '$', 'chika', 'naur', 'eklabool', 'anda'}</t>
+          <t>{'shimenet', 'naur', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'andamhie', 'anda', 'eklabool', 'chika'}</t>
+          <t>{'chika', 'andamhie', 'anda', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{',', ')'}</t>
+          <t>{')', ','}</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{',', '=', ')', ';'}</t>
+          <t>{';', ')', ',', '='}</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'//=', ':', 'to', '}', ']', '-=', '||', '+=', ',', '*', ';', '&gt;', '**', '-', '*=', '//', '/', '**=', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '/=', '&lt;=', '%', '!=', '%=', '='}</t>
+          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '//=', ']', '%=', '*', '+=', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '||'}</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'//=', ':', 'to', '}', ']', '-=', '||', '+=', ',', '*', ';', '&gt;', '**', '-', '*=', '//', '/', '**=', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '/=', '&lt;=', '%', '!=', '%=', '='}</t>
+          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '//=', ']', '%=', '*', '+=', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '||'}</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'-', '//=', '*=', ':', '//', 'to', '}', '/', ']', '**=', ')', '+', '&gt;=', '-=', '||', '&lt;', '+=', '==', '&amp;&amp;', 'step', ',', '/=', '&lt;=', '*', ';', '%', '!=', '&gt;', '%=', '=', '**'}</t>
+          <t>{'/=', '==', ')', '&lt;=', ':', 'to', '**=', '**', '//=', ']', '}', '%=', ';', '*', '+', '&gt;=', '/', '%', '*=', '=', '&gt;', '//', '&amp;&amp;', '!=', ',', '||', 'step', '-', '-=', '&lt;', '+='}</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{',', ']', ';', '}'}</t>
+          <t>{';', ',', ']', '}'}</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{':', 'to', '}', ']', '||', ',', '*', ';', '&gt;', '**', '-', '//', '/', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '&lt;=', '%', '!='}</t>
+          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'-', ':', '//', 'to', '}', '/', ']', ')', '+', '&gt;=', '||', '&lt;', '==', '&amp;&amp;', 'step', ',', '&lt;=', '*', ';', '%', '!=', '&gt;', '**'}</t>
+          <t>{'==', ')', '&lt;=', ':', 'to', '**', ']', '}', ';', '*', '+', '&gt;=', '/', '%', '&gt;', '//', '&amp;&amp;', '!=', ',', 'step', '-', '&lt;', '||'}</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{':', 'to', '}', ']', '||', ',', '*', ';', '&gt;', '**', '-', '//', '/', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '&lt;=', '%', '!='}</t>
+          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{':', 'to', '}', ']', '||', ',', '*', ';', '&gt;', '**', '-', '//', '/', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '&lt;=', '%', '!='}</t>
+          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'chika', 'pak', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'id', 'betsung', 'serve', 'pak', 'gogogo', '}', 'chika', 'eklabool', '--', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{',', ')'}</t>
+          <t>{')', ','}</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'step', ',', ';', ':', 'to', '}', ']', ')'}</t>
+          <t>{';', ')', ':', 'to', ',', ']', 'step', '}'}</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'step', ',', ';', ':', 'to', '}', ']', ')'}</t>
+          <t>{';', ')', ':', 'to', ',', ']', 'step', '}'}</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'step', ',', ';', ':', 'to', '}', ']', ')'}</t>
+          <t>{';', ')', ':', 'to', ',', ']', 'step', '}'}</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'step', ',', ';', ':', 'to', '}', ']', ')'}</t>
+          <t>{';', ')', ':', 'to', ',', ']', 'step', '}'}</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{':', 'to', '}', ']', '||', ',', '*', ';', '&gt;', '**', '-', '//', '/', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '&lt;=', '%', '!='}</t>
+          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'id', 'anda_literal', 'chika_literal', 'korik', 'eme', 'len', '(', '--', '++', 'andamhie_literal'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', 'chika_literal', '--', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{':', 'to', '}', ']', '||', ',', '*', ';', '&gt;', '**', '-', '//', '/', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '&lt;=', '%', '!='}</t>
+          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{':', 'to', '}', ']', '||', ',', '*', ';', '&gt;', '**', '-', '//', '/', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '&lt;=', '%', '!='}</t>
+          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'-', ':', '//', 'to', '}', '/', ']', ')', '+', '&gt;=', '||', '&lt;', '==', '&amp;&amp;', 'id', ',', 'step', '&lt;=', '*', ';', '%', '!=', '&gt;', '**'}</t>
+          <t>{'id', '==', ')', '&lt;=', ':', 'to', '**', ']', '}', ';', '*', '+', '&gt;=', '/', '%', '&gt;', '//', '&amp;&amp;', '!=', ',', 'step', '-', '&lt;', '||'}</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{':', 'to', '}', ']', '||', ',', '*', ';', '&gt;', '**', '-', '//', '/', ')', '+', '&gt;=', '&lt;', '==', '&amp;&amp;', 'step', '&lt;=', '%', '!='}</t>
+          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'forda', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'forda', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'betsung', '}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'-', 'id', 'anda_literal', 'chika_literal', '!', 'korik', 'andamhie_literal', 'len', '(', '--', '++', '{', 'eme'}</t>
+          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '{', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'ganern', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', 'ganern', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'chika', 'pak', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'eklabool', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'step', ')', 'to'}</t>
+          <t>{')', 'step', 'to'}</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'chika', 'pak', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'eklabool', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', '}', '--', '++', 'ditech', 'adelete', 'pak', 'chika', 'forda', 'id', 'andamhie', 'versa', 'betsung', 'keri', 'serve', 'naur', 'gogogo', 'eklabool', 'adele', 'anda'}</t>
+          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '--', 'chika', 'push', 'eklabool', '++', '}', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', 'amaccana', '}'}</t>
+          <t>{'amaccana', 'betsung', '}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'betsung', '}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'betsung', '}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'push', '}', '--', '++', 'adelete', 'chika', 'id', 'betsung', 'naur', 'gogogo', 'eklabool', 'adele', 'anda', 'amaccana', 'ditech', 'pak', 'forda', 'andamhie', 'versa', 'keri', 'serve'}</t>
+          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
         </is>
       </c>
     </row>

--- a/Files/cfg/follow_set.xlsx
+++ b/Files/cfg/follow_set.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'shimenet', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', '$'}</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'shimenet', 'naur', '$', 'andamhie', 'anda', 'chika', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', 'naur', '$'}</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'chika', 'andamhie', 'anda', 'eklabool'}</t>
+          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{')', ','}</t>
+          <t>{',', ')'}</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{';', ')', ',', '='}</t>
+          <t>{'=', ')', ',', ';'}</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '//=', ']', '%=', '*', '+=', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '||'}</t>
+          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'/=', '==', '**', '}', ';', '/', '%', '*=', '&gt;', 'step', '-=', '&lt;', ')', '&lt;=', ':', 'to', '**=', '//=', ']', '%=', '*', '+=', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '=', '||'}</t>
+          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'/=', '==', ')', '&lt;=', ':', 'to', '**=', '**', '//=', ']', '}', '%=', ';', '*', '+', '&gt;=', '/', '%', '*=', '=', '&gt;', '//', '&amp;&amp;', '!=', ',', '||', 'step', '-', '-=', '&lt;', '+='}</t>
+          <t>{'step', '*', '/=', '%=', '-=', '&lt;=', '&amp;&amp;', '&lt;', '-', ';', '!=', '&gt;=', '*=', ':', '=', '+', ')', ',', 'to', '%', '//=', '==', '**=', '//', '&gt;', '+=', '||', '/', ']', '}', '**'}</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{';', ',', ']', '}'}</t>
+          <t>{',', ']', '}', ';'}</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
+          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'==', ')', '&lt;=', ':', 'to', '**', ']', '}', ';', '*', '+', '&gt;=', '/', '%', '&gt;', '//', '&amp;&amp;', '!=', ',', 'step', '-', '&lt;', '||'}</t>
+          <t>{'step', '*', '&lt;=', '&amp;&amp;', '&lt;', '-', ';', '!=', '&gt;=', ':', '+', ')', ',', 'to', '%', '==', '//', '&gt;', '||', '/', ']', '}', '**'}</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
+          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
+          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{';', ','}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{';', ','}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{';', ','}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'$', 'shimenet'}</t>
+          <t>{'shimenet', '$'}</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'id', 'betsung', 'serve', 'pak', 'gogogo', '}', 'chika', 'eklabool', '--', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'forda', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{')', ','}</t>
+          <t>{',', ')'}</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{';', ')', ':', 'to', ',', ']', 'step', '}'}</t>
+          <t>{'step', ';', ':', ')', ',', ']', '}', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{';', ')', ':', 'to', ',', ']', 'step', '}'}</t>
+          <t>{'step', ';', ':', ')', ',', ']', '}', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{';', ')', ':', 'to', ',', ']', 'step', '}'}</t>
+          <t>{'step', ';', ':', ')', ',', ']', '}', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{';', ')', ':', 'to', ',', ']', 'step', '}'}</t>
+          <t>{'step', ';', ':', ')', ',', ']', '}', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
+          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', 'chika_literal', '--', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', 'eme', '(', 'id', 'andamhie_literal', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
+          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
+          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'id', '==', ')', '&lt;=', ':', 'to', '**', ']', '}', ';', '*', '+', '&gt;=', '/', '%', '&gt;', '//', '&amp;&amp;', '!=', ',', 'step', '-', '&lt;', '||'}</t>
+          <t>{'step', '*', '&lt;=', '&amp;&amp;', '&lt;', '-', ';', '!=', '&gt;=', ':', '+', ')', ',', 'to', '%', '==', '//', '&gt;', '||', '/', ']', 'id', '}', '**'}</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'==', '**', '}', ';', '/', '%', '&gt;', 'step', '&lt;', ')', '&lt;=', ':', 'to', ']', '*', '+', '&gt;=', '//', '&amp;&amp;', '!=', ',', '-', '||'}</t>
+          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'forda', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'serve', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'forda', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'serve', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'betsung', '}', 'ditech'}</t>
+          <t>{'}', 'ditech', 'betsung'}</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', '(', 'id', 'len', 'korik', 'eme', '{', '--', 'chika_literal', '-', '!', '++', 'anda_literal'}</t>
+          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', '{', 'id', '(', '--', 'anda_literal'}</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'serve', 'ganern', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'ganern', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'eklabool', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{')', 'step', 'to'}</t>
+          <t>{'step', ')', 'to'}</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '}', 'eklabool', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'forda', 'id', 'betsung', 'pak', 'gogogo', '--', 'chika', 'push', 'eklabool', '++', '}', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'keri', 'versa', 'serve', 'adele'}</t>
+          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'adelete', 'chika', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
         </is>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{'}', 'ditech'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'amaccana', 'betsung', '}', 'ditech'}</t>
+          <t>{'amaccana', 'ditech', 'betsung', '}'}</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'}', 'ditech'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'betsung', '}', 'ditech'}</t>
+          <t>{'ditech', 'betsung', '}'}</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{'betsung', '}', 'ditech'}</t>
+          <t>{'ditech', 'betsung', '}'}</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'serve', '}', 'eklabool', 'keri', 'versa', 'gogogo', 'id', 'betsung', 'pak', '--', 'chika', 'push', '++', 'ditech', 'naur', 'adelete', 'amaccana', 'andamhie', 'anda', 'forda', 'adele'}</t>
+          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
         </is>
       </c>
     </row>

--- a/Files/cfg/follow_set.xlsx
+++ b/Files/cfg/follow_set.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', '$'}</t>
+          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'shimenet', 'andamhie', 'chika', 'naur', '$'}</t>
+          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'chika', 'anda', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'anda', 'eklabool', 'andamhie', 'chika'}</t>
+          <t>{'eklabool', 'andamhie', 'anda', 'chika'}</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'=', ')', ',', ';'}</t>
+          <t>{';', ')', '=', ','}</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '**=', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', '+', 'step', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'/=', '-=', '&lt;', '!=', '=', '+', ')', ',', 'to', '//=', '==', '**=', '&gt;', '+=', '}', 'step', '*', '%=', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', '*=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '**=', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', 'step', '+', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'step', '*', '/=', '%=', '-=', '&lt;=', '&amp;&amp;', '&lt;', '-', ';', '!=', '&gt;=', '*=', ':', '=', '+', ')', ',', 'to', '%', '//=', '==', '**=', '//', '&gt;', '+=', '||', '/', ']', '}', '**'}</t>
+          <t>{'%', '!=', ']', '}', '**=', '&lt;=', '//=', '%=', ',', '&lt;', '-=', '+=', '//', ';', '**', '+', 'to', '&gt;', ':', '&amp;&amp;', '/=', '||', '&gt;=', ')', '=', '/', '==', '*', 'step', '*=', '-'}</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{',', ']', '}', ';'}</t>
+          <t>{';', ']', '}', ','}</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', '+', 'step', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'step', '*', '&lt;=', '&amp;&amp;', '&lt;', '-', ';', '!=', '&gt;=', ':', '+', ')', ',', 'to', '%', '==', '//', '&gt;', '||', '/', ']', '}', '**'}</t>
+          <t>{'%', '!=', ']', '}', '&lt;=', 'step', ',', '&lt;', '//', ';', '**', 'to', '&gt;', ':', '&amp;&amp;', '||', '&gt;=', ')', '/', '==', '*', '+', '-'}</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', 'step', '+', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', 'step', '+', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'step', ';', ':', ')', ',', ']', '}', 'to'}</t>
+          <t>{';', ']', '}', 'to', ':', ',', ')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'step', ';', ':', ')', ',', ']', '}', 'to'}</t>
+          <t>{';', ']', '}', 'to', ':', ',', ')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'step', ';', ':', ')', ',', ']', '}', 'to'}</t>
+          <t>{';', ']', '}', 'to', ':', ',', ')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'step', ';', ':', ')', ',', ']', '}', 'to'}</t>
+          <t>{';', ']', '}', 'to', ':', ',', ')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', 'step', '+', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', 'eme', '(', 'id', 'andamhie_literal', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', '+', 'step', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', 'step', '+', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'step', '*', '&lt;=', '&amp;&amp;', '&lt;', '-', ';', '!=', '&gt;=', ':', '+', ')', ',', 'to', '%', '==', '//', '&gt;', '||', '/', ']', 'id', '}', '**'}</t>
+          <t>{'%', '!=', ']', '}', 'id', '&lt;=', ',', '&lt;', '//', ';', '**', '+', 'to', '&gt;', ':', '&amp;&amp;', '||', '&gt;=', ')', '/', '==', '*', 'step', '-'}</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'&lt;', '!=', '+', ')', ',', 'to', '==', '&gt;', '}', 'step', '*', '&lt;=', '&amp;&amp;', '-', ';', '&gt;=', ':', '%', '//', '||', '/', ']', '**'}</t>
+          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', '+', 'step', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'korik', '++', 'chika_literal', 'len', '!', '-', 'andamhie_literal', 'eme', '{', 'id', '(', '--', 'anda_literal'}</t>
+          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', '{', 'korik', '-', '(', 'eme'}</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'forda', 'ganern', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'ganern', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', '--', 'andamhie', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'step', ')'}</t>
+          <t>{')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'step', ')', 'to'}</t>
+          <t>{'to', ')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'chika', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', '--', 'andamhie', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'++', 'forda', 'betsung', 'amaccana', 'keri', 'naur', 'adele', 'anda', 'eklabool', 'push', 'pak', 'andamhie', 'adelete', 'chika', 'gogogo', 'versa', 'serve', 'ditech', 'id', '}', '--'}</t>
+          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'forda', 'amaccana', 'adelete', 'versa', 'chika', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'amaccana', 'ditech', 'betsung', '}'}</t>
+          <t>{'amaccana', '}', 'ditech', 'betsung'}</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'ditech', 'betsung', '}'}</t>
+          <t>{'}', 'ditech', 'betsung'}</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{'ditech', 'betsung', '}'}</t>
+          <t>{'}', 'ditech', 'betsung'}</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'forda', 'amaccana', 'adele', 'anda', 'push', 'andamhie', 'chika', '}', '--', '++', 'betsung', 'keri', 'naur', 'eklabool', 'pak', 'adelete', 'gogogo', 'versa', 'serve', 'ditech', 'id'}</t>
+          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
         </is>
       </c>
     </row>

--- a/Files/cfg/follow_set.xlsx
+++ b/Files/cfg/follow_set.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'anda', 'chika'}</t>
+          <t>{'chika', 'eklabool', 'shimenet', 'andamhie', 'anda', '$'}</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'eklabool', '$', 'andamhie', 'shimenet', 'chika', 'anda', 'naur'}</t>
+          <t>{'chika', 'naur', 'eklabool', 'andamhie', 'shimenet', 'anda', '$'}</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'eklabool', 'andamhie', 'anda', 'chika'}</t>
+          <t>{'chika', 'eklabool', 'andamhie', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{',', ')'}</t>
+          <t>{')', ','}</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{';', ')', '=', ','}</t>
+          <t>{';', '(', '=', ')', ','}</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'%', '!=', '**=', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', '+', 'step', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
+          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '=', '//', '%=', ',', '||', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'%', '!=', '**=', '&lt;', '+=', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '=', '==', 'step', '+', ']', '}', '&lt;=', '//=', '%=', ',', '-=', 'to', '&gt;', '/=', '/', '-', '*', '*='}</t>
+          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '%=', '=', '//', ',', '||', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'%', '!=', ']', '}', '**=', '&lt;=', '//=', '%=', ',', '&lt;', '-=', '+=', '//', ';', '**', '+', 'to', '&gt;', ':', '&amp;&amp;', '/=', '||', '&gt;=', ')', '=', '/', '==', '*', 'step', '*=', '-'}</t>
+          <t>{';', '==', '/', '&gt;=', '+=', ')', '*', 'to', '+', '/=', '-=', '&gt;', '%', '**=', 'step', '//=', '-', '}', ']', '**', '&lt;=', '!=', ':', '&lt;', '*=', '%=', '//', '=', '&amp;&amp;', ',', '||'}</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{';', ']', '}', ','}</t>
+          <t>{';', '}', ']', ','}</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', '+', 'step', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
+          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'%', '!=', ']', '}', '&lt;=', 'step', ',', '&lt;', '//', ';', '**', 'to', '&gt;', ':', '&amp;&amp;', '||', '&gt;=', ')', '/', '==', '*', '+', '-'}</t>
+          <t>{';', '==', '/', '&gt;=', ')', '*', 'to', '+', '&gt;', '%', 'step', '-', '}', ']', '**', '&lt;=', '!=', ':', '&lt;', '//', '&amp;&amp;', ',', '||'}</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', 'step', '+', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
+          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', 'step', '+', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
+          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{',', ';'}</t>
+          <t>{';', ','}</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{',', ';'}</t>
+          <t>{';', ','}</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{',', ';'}</t>
+          <t>{';', ','}</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'shimenet', '$'}</t>
+          <t>{'$', 'shimenet'}</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{',', ')'}</t>
+          <t>{')', ','}</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{';', ']', '}', 'to', ':', ',', ')', 'step'}</t>
+          <t>{';', '}', ']', ')', 'to', ':', 'step', ','}</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{';', ']', '}', 'to', ':', ',', ')', 'step'}</t>
+          <t>{';', '}', ']', ')', 'to', ':', 'step', ','}</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{';', ']', '}', 'to', ':', ',', ')', 'step'}</t>
+          <t>{';', '}', ']', ')', 'to', ':', 'step', ','}</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{';', ']', '}', 'to', ':', ',', ')', 'step'}</t>
+          <t>{';', '}', ']', ')', 'to', ':', 'step', ','}</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', 'step', '+', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
+          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '(', 'eme'}</t>
+          <t>{'id', 'eme', '(', '--', 'anda_literal', 'len', 'korik', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', '+', 'step', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
+          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', 'step', '+', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
+          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'%', '!=', ']', '}', 'id', '&lt;=', ',', '&lt;', '//', ';', '**', '+', 'to', '&gt;', ':', '&amp;&amp;', '||', '&gt;=', ')', '/', '==', '*', 'step', '-'}</t>
+          <t>{';', '==', '/', '&gt;=', ')', '*', 'to', '+', '&gt;', '%', 'step', 'id', '-', '}', ']', '**', '&lt;=', '!=', ':', '&lt;', '//', '&amp;&amp;', ',', '||'}</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'%', '!=', '&lt;', '//', ';', '**', ':', '&amp;&amp;', '||', '&gt;=', ')', '==', '+', 'step', ']', '}', '&lt;=', ',', 'to', '&gt;', '/', '-', '*'}</t>
+          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'}', 'ditech', 'betsung'}</t>
+          <t>{'betsung', 'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'andamhie_literal', 'len', '!', 'chika_literal', 'id', 'anda_literal', '--', '++', '{', 'korik', '-', '(', 'eme'}</t>
+          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', '{', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'ganern', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'ganern', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', '--', 'andamhie', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{')', 'step'}</t>
+          <t>{'step', ')'}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'to', ')', 'step'}</t>
+          <t>{'step', ')', 'to'}</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', '--', 'andamhie', 'gogogo', 'serve', 'amaccana', 'forda', 'versa', 'adelete', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'eklabool', '}', 'id', 'ditech', 'keri', 'push', '++', 'anda', 'naur', 'betsung', 'adele', 'andamhie', '--', 'gogogo', 'serve', 'forda', 'amaccana', 'adelete', 'versa', 'chika', 'pak'}</t>
+          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', 'forda', '--', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{'}', 'ditech'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{':', ')'}</t>
+          <t>{')', ':'}</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'amaccana', '}', 'ditech', 'betsung'}</t>
+          <t>{'betsung', 'ditech', '}', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'}', 'ditech'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'}', 'ditech', 'betsung'}</t>
+          <t>{'betsung', 'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{'}', 'ditech', 'betsung'}</t>
+          <t>{'betsung', 'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'eklabool', 'push', 'anda', '--', 'serve', 'amaccana', 'versa', 'chika', 'pak', '}', 'id', 'ditech', 'keri', '++', 'naur', 'betsung', 'adele', 'andamhie', 'gogogo', 'forda', 'adelete'}</t>
+          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
         </is>
       </c>
     </row>

--- a/Files/cfg/follow_set.xlsx
+++ b/Files/cfg/follow_set.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'shimenet', 'andamhie', 'anda', '$'}</t>
+          <t>{'chika', '$', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'chika', 'naur', 'eklabool', 'andamhie', 'shimenet', 'anda', '$'}</t>
+          <t>{'chika', '$', 'naur', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'chika', 'eklabool', 'andamhie', 'anda'}</t>
+          <t>{'chika', 'anda', 'andamhie', 'eklabool'}</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{';', '(', '=', ')', ','}</t>
+          <t>{')', ',', '(', '=', ';'}</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '=', '//', '%=', ',', '||', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', '+=', ')', '*', 'to', '&gt;', '//=', '-', ']', '**', ':', '&lt;', '%=', '=', '//', ',', '||', '==', '+', '/=', '-=', '%', '**=', 'step', '}', '&lt;=', '!=', '*=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{';', '==', '/', '&gt;=', '+=', ')', '*', 'to', '+', '/=', '-=', '&gt;', '%', '**=', 'step', '//=', '-', '}', ']', '**', '&lt;=', '!=', ':', '&lt;', '*=', '%=', '//', '=', '&amp;&amp;', ',', '||'}</t>
+          <t>{'&lt;=', '//=', '*=', '||', 'to', '&gt;=', '-', '*', '**', '==', ']', '/', '=', '&amp;&amp;', '+', '+=', 'step', '//', '%', ',', ':', '-=', '**=', '!=', '/=', ')', '&lt;', '%=', '&gt;', '}', ';'}</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{';', '}', ']', ','}</t>
+          <t>{',', ']', '}', ';'}</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{';', '==', '/', '&gt;=', ')', '*', 'to', '+', '&gt;', '%', 'step', '-', '}', ']', '**', '&lt;=', '!=', ':', '&lt;', '//', '&amp;&amp;', ',', '||'}</t>
+          <t>{'&lt;=', '||', 'to', '&gt;=', '-', '*', '**', '==', ']', '/', '&amp;&amp;', '+', 'step', '//', '%', ',', ':', '!=', ')', '&lt;', '&gt;', '}', ';'}</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{';', ','}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{';', ','}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{';', ','}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{';', '}', ']', ')', 'to', ':', 'step', ','}</t>
+          <t>{'step', ',', ':', 'to', ')', ']', '}', ';'}</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{';', '}', ']', ')', 'to', ':', 'step', ','}</t>
+          <t>{'step', ',', ':', 'to', ')', ']', '}', ';'}</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{';', '}', ']', ')', 'to', ':', 'step', ','}</t>
+          <t>{'step', ',', ':', 'to', ')', ']', '}', ';'}</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{';', '}', ']', ')', 'to', ':', 'step', ','}</t>
+          <t>{'step', ',', ':', 'to', ')', ']', '}', ';'}</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '(', '--', 'anda_literal', 'len', 'korik', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '(', '++', '--', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{';', '==', '/', '&gt;=', ')', '*', 'to', '+', '&gt;', '%', 'step', 'id', '-', '}', ']', '**', '&lt;=', '!=', ':', '&lt;', '//', '&amp;&amp;', ',', '||'}</t>
+          <t>{'&lt;=', '||', 'to', '&gt;=', '-', '*', '**', '==', ']', '/', '&amp;&amp;', '+', 'step', '//', '%', ',', ':', '!=', ')', '&lt;', '&gt;', '}', 'id', ';'}</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{';', '/', '&gt;=', ')', '*', 'to', '&gt;', '-', ']', '**', ':', '&lt;', '//', ',', '||', '==', '+', '%', 'step', '}', '&lt;=', '!=', '&amp;&amp;'}</t>
+          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'id', 'eme', '-', '(', '--', 'anda_literal', '{', 'len', 'korik', '!', 'chika_literal', '++', 'andamhie_literal'}</t>
+          <t>{'eme', 'len', '-', '(', '++', '--', '{', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{';', ')'}</t>
+          <t>{')', ';'}</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'ganern', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'ganern', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'ditech', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'step', ')'}</t>
+          <t>{')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'step', ')', 'to'}</t>
+          <t>{')', 'step', 'to'}</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', '--', 'forda', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'ditech', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'naur', 'andamhie', 'push', 'keri', 'gogogo', 'serve', '++', 'id', 'versa', 'adele', 'chika', '}', 'pak', 'forda', '--', 'adelete', 'eklabool', 'ditech', 'betsung', 'anda', 'amaccana'}</t>
+          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}', 'amaccana'}</t>
+          <t>{'amaccana', 'betsung', 'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'ditech', 'betsung', '}'}</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'ditech', 'betsung', '}'}</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'forda', 'pak', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'keri', 'serve', '++', 'id', 'versa', 'chika', '--', 'ditech', 'anda', 'naur', 'andamhie', 'push', 'gogogo', 'adele', '}', 'pak', 'forda', 'adelete', 'eklabool', 'betsung', 'amaccana'}</t>
+          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
         </is>
       </c>
     </row>

--- a/Files/cfg/follow_set.xlsx
+++ b/Files/cfg/follow_set.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'chika', '$', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
+          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'chika', '$', 'naur', 'shimenet', 'anda', 'andamhie', 'eklabool'}</t>
+          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda', 'naur'}</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'chika', 'anda', 'andamhie', 'eklabool'}</t>
+          <t>{'andamhie', 'chika', 'eklabool', 'anda'}</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{')', ','}</t>
+          <t>{',', ')'}</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{')', ',', '(', '=', ';'}</t>
+          <t>{')', '=', ',', '(', ';'}</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'||', 'to', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'&gt;', ';', '**=', '-', '**', '*=', '+', '-=', '%', '//=', ',', '//', '=', '&amp;&amp;', 'to', '/=', ':', '%=', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', '+=', 'step'}</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Follow(&lt;2d-index&gt;)</t>
+          <t>Follow(&lt;multi-index&gt;)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'||', 'to', '-', '**', '==', '=', '+', '+=', 'step', '**=', '!=', '/=', '%=', ';', '&lt;=', '//=', '*=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', '-=', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'&lt;=', '!=', '&gt;', ']', ';', '**=', '-', '**', '/', '*', '||', 'step', '*=', '&gt;=', '==', '+', '-=', '%', 'to', '//=', ',', '&lt;', '}', ')', '//', '=', '/=', '&amp;&amp;', '+=', ':', '%='}</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Follow(&lt;3d-index&gt;)</t>
+          <t>Follow(&lt;array-values&gt;)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'&lt;=', '//=', '*=', '||', 'to', '&gt;=', '-', '*', '**', '==', ']', '/', '=', '&amp;&amp;', '+', '+=', 'step', '//', '%', ',', ':', '-=', '**=', '!=', '/=', ')', '&lt;', '%=', '&gt;', '}', ';'}</t>
+          <t>{']', ',', ';', '}'}</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Follow(&lt;array-values&gt;)</t>
+          <t>Follow(&lt;literals&gt;)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{',', ']', '}', ';'}</t>
+          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', '&amp;&amp;', 'to', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Follow(&lt;literals&gt;)</t>
+          <t>Follow(&lt;eklabool&gt;)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'&lt;=', '!=', '&gt;', ']', ';', '/', '-', '**', '*', '||', '&gt;=', '==', '+', '%', 'to', ',', '&lt;', '}', ')', '//', '&amp;&amp;', 'step', ':'}</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Follow(&lt;eklabool&gt;)</t>
+          <t>Follow(&lt;func-array&gt;)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'&lt;=', '||', 'to', '&gt;=', '-', '*', '**', '==', ']', '/', '&amp;&amp;', '+', 'step', '//', '%', ',', ':', '!=', ')', '&lt;', '&gt;', '}', ';'}</t>
+          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', 'to', '&amp;&amp;', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Follow(&lt;func-array&gt;)</t>
+          <t>Follow(&lt;func-array-value&gt;)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', 'to', '&amp;&amp;', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Follow(&lt;func-array-value&gt;)</t>
+          <t>Follow(&lt;var-init&gt;)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{';'}</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Follow(&lt;var-init&gt;)</t>
+          <t>Follow(&lt;var-init-tail&gt;)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{';'}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Follow(&lt;var-init-tail&gt;)</t>
+          <t>Follow(&lt;multi-init-values&gt;)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{',', ';'}</t>
+          <t>{';'}</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Follow(&lt;multi-init-values&gt;)</t>
+          <t>Follow(&lt;multi-init-values-tail&gt;)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{';'}</t>
+          <t>{',', ';'}</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Follow(&lt;multi-init-values-tail&gt;)</t>
+          <t>Follow(&lt;init-values&gt;)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Follow(&lt;init-values&gt;)</t>
+          <t>Follow(&lt;array-init&gt;)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{',', ';'}</t>
+          <t>{';'}</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Follow(&lt;array-init&gt;)</t>
+          <t>Follow(&lt;array-elements&gt;)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{';'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Follow(&lt;array-elements&gt;)</t>
+          <t>Follow(&lt;extra-array-value&gt;)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Follow(&lt;extra-array-value&gt;)</t>
+          <t>Follow(&lt;func-def&gt;)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'shimenet', '$'}</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Follow(&lt;func-def&gt;)</t>
+          <t>Follow(&lt;func-body&gt;)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'$', 'shimenet'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Follow(&lt;func-body&gt;)</t>
+          <t>Follow(&lt;local-dec&gt;)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Follow(&lt;local-dec&gt;)</t>
+          <t>Follow(&lt;local-dec-init&gt;)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'versa', '++', 'andamhie', 'id', 'adelete', 'push', '--', 'gogogo', 'naur', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Follow(&lt;local-dec-init&gt;)</t>
+          <t>Follow(&lt;arguments&gt;)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{')'}</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Follow(&lt;arguments&gt;)</t>
+          <t>Follow(&lt;multi-arguments-value&gt;)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Follow(&lt;multi-arguments-value&gt;)</t>
+          <t>Follow(&lt;arguments-value&gt;)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{')'}</t>
+          <t>{',', ')'}</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Follow(&lt;arguments-value&gt;)</t>
+          <t>Follow(&lt;array-assign&gt;)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{')', ','}</t>
+          <t>{'andamhie', 'adelete', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Follow(&lt;array-assign&gt;)</t>
+          <t>Follow(&lt;kween-body&gt;)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Follow(&lt;kween-body&gt;)</t>
+          <t>Follow(&lt;expression&gt;)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{']', ',', ';', '}', ')', 'to', 'step', ':'}</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Follow(&lt;expression&gt;)</t>
+          <t>Follow(&lt;simple-expression&gt;)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'step', ',', ':', 'to', ')', ']', '}', ';'}</t>
+          <t>{']', ',', ';', '}', ')', 'to', 'step', ':'}</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Follow(&lt;simple-expression&gt;)</t>
+          <t>Follow(&lt;multi-expression&gt;)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'step', ',', ':', 'to', ')', ']', '}', ';'}</t>
+          <t>{']', ',', ';', '}', ')', 'to', 'step', ':'}</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Follow(&lt;multi-expression&gt;)</t>
+          <t>Follow(&lt;expression-tail&gt;)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'step', ',', ':', 'to', ')', ']', '}', ';'}</t>
+          <t>{']', ',', ';', '}', ')', 'to', 'step', ':'}</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Follow(&lt;expression-tail&gt;)</t>
+          <t>Follow(&lt;expression-operands&gt;)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'step', ',', ':', 'to', ')', ']', '}', ';'}</t>
+          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', 'to', '&amp;&amp;', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Follow(&lt;expression-operands&gt;)</t>
+          <t>Follow(&lt;negative-not-value&gt;)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'anda_literal', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Follow(&lt;negative-not-value&gt;)</t>
+          <t>Follow(&lt;expression-value&gt;)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '(', '++', '--', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', '&amp;&amp;', 'to', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Follow(&lt;expression-value&gt;)</t>
+          <t>Follow(&lt;len-choice&gt;)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{')'}</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Follow(&lt;len-choice&gt;)</t>
+          <t>Follow(&lt;identifier-tail&gt;)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{')'}</t>
+          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', 'to', '&amp;&amp;', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Follow(&lt;identifier-tail&gt;)</t>
+          <t>Follow(&lt;unary-operator&gt;)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'&lt;=', '!=', '&gt;', ']', 'id', ';', '&amp;&amp;', '-', '**', '/', '*', '||', '&gt;=', '==', '+', '%', ',', '&lt;', '}', ')', '//', 'to', 'step', ':'}</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Follow(&lt;unary-operator&gt;)</t>
+          <t>Follow(&lt;general-operands&gt;)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'&lt;=', '||', 'to', '&gt;=', '-', '*', '**', '==', ']', '/', '&amp;&amp;', '+', 'step', '//', '%', ',', ':', '!=', ')', '&lt;', '&gt;', '}', 'id', ';'}</t>
+          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', '&amp;&amp;', 'to', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Follow(&lt;general-operands&gt;)</t>
+          <t>Follow(&lt;general-operators&gt;)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'||', 'to', '-', '**', '==', '+', 'step', '!=', ';', '&lt;=', '&gt;=', '*', ']', '/', '&amp;&amp;', '//', '%', ',', ':', ')', '&lt;', '&gt;', '}'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Follow(&lt;general-operators&gt;)</t>
+          <t>Follow(&lt;statements&gt;)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Follow(&lt;statements&gt;)</t>
+          <t>Follow(&lt;loop-body&gt;)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Follow(&lt;loop-body&gt;)</t>
+          <t>Follow(&lt;multi-loop-body&gt;)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'betsung', 'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Follow(&lt;multi-loop-body&gt;)</t>
+          <t>Follow(&lt;assign-call-stmts&gt;)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Follow(&lt;assign-call-stmts&gt;)</t>
+          <t>Follow(&lt;assignment-operators&gt;)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', '{', 'chika_literal', '('}</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Follow(&lt;assignment-operators&gt;)</t>
+          <t>Follow(&lt;assignment-values&gt;)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'eme', 'len', '-', '(', '++', '--', '{', '!', 'chika_literal', 'id', 'korik', 'anda_literal', 'andamhie_literal'}</t>
+          <t>{')', ';'}</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Follow(&lt;assignment-values&gt;)</t>
+          <t>Follow(&lt;input-stmts&gt;)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{')', ';'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Follow(&lt;input-stmts&gt;)</t>
+          <t>Follow(&lt;input-type&gt;)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Follow(&lt;input-type&gt;)</t>
+          <t>Follow(&lt;givenchy-values&gt;)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{')'}</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Follow(&lt;givenchy-values&gt;)</t>
+          <t>Follow(&lt;output-stmts&gt;)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{')'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Follow(&lt;output-stmts&gt;)</t>
+          <t>Follow(&lt;append-stmts&gt;)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Follow(&lt;append-stmts&gt;)</t>
+          <t>Follow(&lt;delete-stmts&gt;)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Follow(&lt;delete-stmts&gt;)</t>
+          <t>Follow(&lt;output-values&gt;)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{')'}</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Follow(&lt;output-values&gt;)</t>
+          <t>Follow(&lt;conditional-stmts&gt;)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{')'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Follow(&lt;conditional-stmts&gt;)</t>
+          <t>Follow(&lt;condition&gt;)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{')'}</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Follow(&lt;condition&gt;)</t>
+          <t>Follow(&lt;conditional-body&gt;)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{')'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Follow(&lt;conditional-body&gt;)</t>
+          <t>Follow(&lt;loop-conditional-stmts&gt;)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Follow(&lt;loop-conditional-stmts&gt;)</t>
+          <t>Follow(&lt;loop-conditional-body&gt;)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Follow(&lt;loop-conditional-body&gt;)</t>
+          <t>Follow(&lt;ganern-pak-statement&gt;)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'ganern', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Follow(&lt;ganern-pak-statement&gt;)</t>
+          <t>Follow(&lt;ganern-case&gt;)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'push', 'ganern', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Follow(&lt;ganern-case&gt;)</t>
+          <t>Follow(&lt;loop-stmts&gt;)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Follow(&lt;loop-stmts&gt;)</t>
+          <t>Follow(&lt;forda-statement&gt;)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Follow(&lt;forda-statement&gt;)</t>
+          <t>Follow(&lt;loop-type-init&gt;)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'ditech', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'id'}</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Follow(&lt;loop-type-init&gt;)</t>
+          <t>Follow(&lt;start-value&gt;)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{'id'}</t>
+          <t>{'to'}</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Follow(&lt;start-value&gt;)</t>
+          <t>Follow(&lt;end-value&gt;)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'to'}</t>
+          <t>{'step', ')'}</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Follow(&lt;end-value&gt;)</t>
+          <t>Follow(&lt;step-case&gt;)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{')', 'step'}</t>
+          <t>{')'}</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Follow(&lt;step-case&gt;)</t>
+          <t>Follow(&lt;update&gt;)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Follow(&lt;update&gt;)</t>
+          <t>Follow(&lt;loop-conditions&gt;)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{')'}</t>
+          <t>{')', 'to', 'step'}</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Follow(&lt;loop-conditions&gt;)</t>
+          <t>Follow(&lt;for-loop-body&gt;)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{')', 'step', 'to'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Follow(&lt;for-loop-body&gt;)</t>
+          <t>Follow(&lt;keri-statement&gt;)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Follow(&lt;keri-statement&gt;)</t>
+          <t>Follow(&lt;keri-case&gt;)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Follow(&lt;keri-case&gt;)</t>
+          <t>Follow(&lt;while-loop-body&gt;)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'ditech', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Follow(&lt;while-loop-body&gt;)</t>
+          <t>Follow(&lt;switch-stmts&gt;)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Follow(&lt;switch-stmts&gt;)</t>
+          <t>Follow(&lt;multi-cases&gt;)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'amaccana', 'push', 'gogogo', 'keri', 'naur', '++', '--', 'betsung', 'adele', 'adelete', 'eklabool', 'forda', 'chika', 'ditech', 'serve', 'pak', 'versa', 'anda', '}', 'andamhie', 'id'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Follow(&lt;multi-cases&gt;)</t>
+          <t>Follow(&lt;switch-values&gt;)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{'}', 'ditech'}</t>
+          <t>{')', ':'}</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Follow(&lt;switch-values&gt;)</t>
+          <t>Follow(&lt;switch-statements&gt;)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{')', ':'}</t>
+          <t>{'amaccana', 'betsung', 'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Follow(&lt;switch-statements&gt;)</t>
+          <t>Follow(&lt;loop-switch-stmts&gt;)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'amaccana', 'betsung', 'ditech', '}'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Follow(&lt;loop-switch-stmts&gt;)</t>
+          <t>Follow(&lt;loop-multi-cases&gt;)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Follow(&lt;loop-multi-cases&gt;)</t>
+          <t>Follow(&lt;loop-switch-statements&gt;)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'}', 'ditech'}</t>
+          <t>{'betsung', 'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Follow(&lt;loop-switch-statements&gt;)</t>
+          <t>Follow(&lt;amaccana-case&gt;)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'ditech', 'betsung', '}'}</t>
+          <t>{'betsung', 'ditech', '}'}</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Follow(&lt;amaccana-case&gt;)</t>
+          <t>Follow(&lt;ditech-case&gt;)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{'ditech', 'betsung', '}'}</t>
+          <t>{'}'}</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Follow(&lt;ditech-case&gt;)</t>
+          <t>Follow(&lt;control-flow-stmts&gt;)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>{'}'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Follow(&lt;control-flow-stmts&gt;)</t>
+          <t>Follow(&lt;return-stmts&gt;)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Follow(&lt;return-stmts&gt;)</t>
+          <t>Follow(&lt;unary-stmts&gt;)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Follow(&lt;unary-stmts&gt;)</t>
+          <t>Follow(&lt;push-values&gt;)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'push', 'gogogo', '++', '--', 'adele', 'adelete', 'ditech', 'andamhie', 'amaccana', 'keri', 'naur', 'betsung', 'eklabool', 'forda', 'chika', 'serve', 'pak', 'versa', 'anda', '}', 'id'}</t>
+          <t>{';'}</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Follow(&lt;push-values&gt;)</t>
+          <t>Follow()</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2326,26 +2326,6 @@
         </is>
       </c>
       <c r="D95" t="inlineStr">
-        <is>
-          <t>{';'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Follow()</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>-&gt;</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
         <is>
           <t>set()</t>
         </is>

--- a/Files/cfg/follow_set.xlsx
+++ b/Files/cfg/follow_set.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda'}</t>
+          <t>{'chika', 'shimenet', 'anda', 'eklabool', 'andamhie', '$'}</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'$', 'andamhie', 'chika', 'shimenet', 'eklabool', 'anda', 'naur'}</t>
+          <t>{'chika', 'shimenet', 'anda', 'naur', 'eklabool', 'andamhie', '$'}</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'andamhie', 'chika', 'eklabool', 'anda'}</t>
+          <t>{'chika', 'anda', 'eklabool', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{',', ')'}</t>
+          <t>{')', ','}</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{')', '=', ',', '(', ';'}</t>
+          <t>{'=', '(', ')', ',', ';'}</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'&gt;', ';', '**=', '-', '**', '*=', '+', '-=', '%', '//=', ',', '//', '=', '&amp;&amp;', 'to', '/=', ':', '%=', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', '+=', 'step'}</t>
+          <t>{'=', '&gt;', '*=', '%', '!=', '==', '-=', '||', '*', '-', ';', ':', '//=', '+', '&amp;&amp;', '&lt;', '**', '&gt;=', ']', '&lt;=', '/', '}', '//', 'step', ')', '/=', '**=', '+=', ',', '%=', 'to'}</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'&lt;=', '!=', '&gt;', ']', ';', '**=', '-', '**', '/', '*', '||', 'step', '*=', '&gt;=', '==', '+', '-=', '%', 'to', '//=', ',', '&lt;', '}', ')', '//', '=', '/=', '&amp;&amp;', '+=', ':', '%='}</t>
+          <t>{'&amp;&amp;', '=', '&gt;', '&lt;', '**', '*=', '&gt;=', '%', '!=', '==', ']', '&lt;=', '-=', '/', '}', '//', 'step', ')', '/=', '||', '*', '-', ';', ':', '//=', '+', '**=', '+=', ',', '%=', 'to'}</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{']', ',', ';', '}'}</t>
+          <t>{'}', ']', ',', ';'}</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', '&amp;&amp;', 'to', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
+          <t>{'&gt;', '%', '!=', '==', '||', '*', '-', ';', ':', '+', '&amp;&amp;', '&lt;', '**', '&gt;=', ']', '&lt;=', '/', '}', '//', 'step', ')', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'&lt;=', '!=', '&gt;', ']', ';', '/', '-', '**', '*', '||', '&gt;=', '==', '+', '%', 'to', ',', '&lt;', '}', ')', '//', '&amp;&amp;', 'step', ':'}</t>
+          <t>{'&amp;&amp;', '&gt;', '&lt;', '**', '&gt;=', '%', '!=', '==', ']', '&lt;=', '/', '}', '//', 'step', ')', '||', '*', '-', ';', ':', '+', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', 'to', '&amp;&amp;', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
+          <t>{'&gt;', '%', '!=', '==', '||', '*', '-', ';', ':', '+', '&amp;&amp;', '&lt;', '**', '&gt;=', ']', '&lt;=', '/', '}', '//', 'step', ')', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', 'to', '&amp;&amp;', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
+          <t>{'&gt;', '%', '!=', '==', '||', '*', '-', ';', ':', '+', '&amp;&amp;', '&lt;', '**', '&gt;=', ']', '&lt;=', '/', '}', '//', 'step', ')', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'shimenet', '$'}</t>
+          <t>{'$', 'shimenet'}</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'andamhie', 'id', 'adelete', 'push', '--', 'gogogo', 'naur', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'ditech', 'forda'}</t>
+          <t>{'anda', 'naur', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'andamhie', 'push', 'serve', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{',', ')'}</t>
+          <t>{')', ','}</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'andamhie', 'adelete', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{']', ',', ';', '}', ')', 'to', 'step', ':'}</t>
+          <t>{'}', 'step', ')', ';', ':', ']', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{']', ',', ';', '}', ')', 'to', 'step', ':'}</t>
+          <t>{'}', 'step', ')', ';', ':', ']', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{']', ',', ';', '}', ')', 'to', 'step', ':'}</t>
+          <t>{'}', 'step', ')', ';', ':', ']', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{']', ',', ';', '}', ')', 'to', 'step', ':'}</t>
+          <t>{'}', 'step', ')', ';', ':', ']', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', 'to', '&amp;&amp;', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
+          <t>{'&gt;', '%', '!=', '==', '||', '*', '-', ';', ':', '+', '&amp;&amp;', '&lt;', '**', '&gt;=', ']', '&lt;=', '/', '}', '//', 'step', ')', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'anda_literal', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', 'chika_literal', '('}</t>
+          <t>{'--', 'len', '(', '++', 'korik', 'eme', 'anda_literal', 'id', 'andamhie_literal', 'chika_literal'}</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', '&amp;&amp;', 'to', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
+          <t>{'&gt;', '%', '!=', '==', '||', '*', '-', ';', ':', '+', '&amp;&amp;', '&lt;', '**', '&gt;=', ']', '&lt;=', '/', '}', '//', 'step', ')', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', 'to', '&amp;&amp;', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
+          <t>{'&gt;', '%', '!=', '==', '||', '*', '-', ';', ':', '+', '&amp;&amp;', '&lt;', '**', '&gt;=', ']', '&lt;=', '/', '}', '//', 'step', ')', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'&lt;=', '!=', '&gt;', ']', 'id', ';', '&amp;&amp;', '-', '**', '/', '*', '||', '&gt;=', '==', '+', '%', ',', '&lt;', '}', ')', '//', 'to', 'step', ':'}</t>
+          <t>{'&amp;&amp;', '&gt;', '&lt;', '**', '&gt;=', '%', '!=', '==', ']', '&lt;=', 'id', '/', '}', '//', 'step', ')', '||', '*', '-', ';', ':', '+', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'&gt;', ';', '-', '**', '+', '%', ',', '//', '&amp;&amp;', 'to', ':', '&lt;=', '!=', ']', '/', '*', '||', '&gt;=', '==', '&lt;', '}', ')', 'step'}</t>
+          <t>{'&gt;', '%', '!=', '==', '||', '*', '-', ';', ':', '+', '&amp;&amp;', '&lt;', '**', '&gt;=', ']', '&lt;=', '/', '}', '//', 'step', ')', ',', 'to'}</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'}', 'betsung', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'anda_literal', '!', '++', 'id', 'andamhie_literal', '--', 'korik', 'eme', 'len', '-', '{', 'chika_literal', '('}</t>
+          <t>{'--', 'chika_literal', 'len', '(', '++', '-', 'eme', 'anda_literal', '!', '{', 'id', 'andamhie_literal', 'korik'}</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{')', ';'}</t>
+          <t>{')', ',', ';'}</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'ganern', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', 'ganern', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'andamhie', 'push', 'serve', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'step', ')'}</t>
+          <t>{')', 'step'}</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{')', 'to', 'step'}</t>
+          <t>{'step', ')', 'to'}</t>
         </is>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'andamhie', 'push', 'serve', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'versa', '++', 'adelete', 'andamhie', 'id', 'push', '--', 'ditech', 'gogogo', 'eklabool', 'anda', 'serve', 'pak', 'chika', 'betsung', '}', 'amaccana', 'keri', 'adele', 'naur', 'forda'}</t>
+          <t>{'anda', 'naur', 'serve', 'forda', 'betsung', 'ditech', 'id', 'amaccana', 'gogogo', '}', 'chika', '--', '++', 'adelete', 'adele', 'eklabool', 'versa', 'keri', 'push', 'andamhie', 'pak'}</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{')', ':'}</t>
+          <t>{':', ')'}</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'amaccana', 'betsung', 'ditech', '}'}</t>
+          <t>{'betsung', '}', 'ditech', 'amaccana'}</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'ditech', '}'}</t>
+          <t>{'}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'betsung', '}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'betsung', 'ditech', '}'}</t>
+          <t>{'betsung', '}', 'ditech'}</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'adelete', 'andamhie', 'gogogo', 'anda', 'serve', 'pak', 'chika', 'amaccana', 'keri', 'naur', 'versa', '++', 'id', 'push', '--', 'eklabool', 'betsung', '}', 'adele', 'ditech', 'forda'}</t>
+          <t>{'forda', 'ditech', 'id', '++', 'adele', 'push', 'serve', 'pak', 'anda', 'naur', 'betsung', 'amaccana', 'gogogo', '}', 'chika', '--', 'adelete', 'eklabool', 'versa', 'keri', 'andamhie'}</t>
         </is>
       </c>
     </row>
